--- a/xlsx/布鲁斯_intext.xlsx
+++ b/xlsx/布鲁斯_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="293">
   <si>
     <t>布鲁斯</t>
   </si>
@@ -29,7 +29,7 @@
     <t>布鲁斯 (消歧义)</t>
   </si>
   <si>
-    <t>政策_政策_美國_布鲁斯</t>
+    <t>政策_政策_美国_布鲁斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/B%C2%B7B%C2%B7%E9%87%91</t>
@@ -53,7 +53,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E9%96%93%E9%9F%B3%E6%A8%82</t>
   </si>
   <si>
-    <t>民間音樂</t>
+    <t>民间音乐</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
@@ -89,7 +89,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E8%B2%9D%E6%96%AF</t>
   </si>
   <si>
-    <t>電貝斯</t>
+    <t>电贝斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BC%93</t>
@@ -113,31 +113,31 @@
     <t>https://zh.wikipedia.org/wiki/%E8%89%B2%E5%A3%AB%E9%A2%A8</t>
   </si>
   <si>
-    <t>色士風</t>
+    <t>色士风</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%B2%E6%A8%82</t>
   </si>
   <si>
-    <t>聲樂</t>
+    <t>声乐</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%95%B7%E8%99%9F</t>
   </si>
   <si>
-    <t>長號</t>
+    <t>长号</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E8%99%9F</t>
   </si>
   <si>
-    <t>小號</t>
+    <t>小号</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9F%AD%E8%99%9F</t>
   </si>
   <si>
-    <t>短號</t>
+    <t>短号</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%91%87%E6%BB%9A</t>
@@ -149,31 +149,31 @@
     <t>https://zh.wikipedia.org/wiki/%E7%88%B5%E5%A3%AB%E6%A8%82</t>
   </si>
   <si>
-    <t>爵士樂</t>
+    <t>爵士乐</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AF%80%E5%A5%8F%E8%97%8D%E8%AA%BF</t>
   </si>
   <si>
-    <t>節奏藍調</t>
+    <t>节奏蓝调</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%90%96%E6%BB%BE%E6%A8%82</t>
   </si>
   <si>
-    <t>搖滾樂</t>
+    <t>摇滚乐</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%88%E9%AD%82%E6%A8%82</t>
   </si>
   <si>
-    <t>靈魂樂</t>
+    <t>灵魂乐</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%97%8D%E8%8D%89%E9%9F%B3%E6%A8%82</t>
   </si>
   <si>
-    <t>藍草音樂</t>
+    <t>蓝草音乐</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Classic_female_blues</t>
@@ -221,7 +221,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%97%8D%E8%AA%BF%E6%90%96%E6%BB%BE</t>
   </si>
   <si>
-    <t>藍調搖滾</t>
+    <t>蓝调摇滚</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/African_blues</t>
@@ -371,7 +371,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%84%89%E6%9D%91%E9%9F%B3%E6%A8%82</t>
   </si>
   <si>
-    <t>鄉村音樂</t>
+    <t>乡村音乐</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Blues</t>
@@ -383,31 +383,31 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E8%AC%A0</t>
   </si>
   <si>
-    <t>民謠</t>
+    <t>民谣</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%94%E8%81%B2%E9%9F%B3%E9%9A%8E</t>
   </si>
   <si>
-    <t>五聲音階</t>
+    <t>五声音阶</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A8%82%E5%99%A8</t>
   </si>
   <si>
-    <t>樂器</t>
+    <t>乐器</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%92%8C%E8%81%B2</t>
   </si>
   <si>
-    <t>和聲</t>
+    <t>和声</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%81%E8%A1%8C%E9%9F%B3%E6%A8%82</t>
   </si>
   <si>
-    <t>流行音樂</t>
+    <t>流行音乐</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%A3%E6%8B%8D</t>
@@ -431,7 +431,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%85%B8%E9%9F%B3%E6%A8%82</t>
   </si>
   <si>
-    <t>古典音樂</t>
+    <t>古典音乐</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%97%8D%E8%AA%BF</t>
@@ -443,7 +443,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A9%A9%E6%AD%8C</t>
   </si>
   <si>
-    <t>詩歌</t>
+    <t>诗歌</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/George_Colman_the_Younger</t>
@@ -509,7 +509,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%A8%E5%88%A9%C2%B7%E6%89%98%E9%A6%AC%E6%96%AF</t>
   </si>
   <si>
-    <t>亨利·托馬斯</t>
+    <t>亨利·托马斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B1%9E%E4%B8%83%E5%92%8C%E5%BC%A6</t>
@@ -527,7 +527,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A3%E8%BF%B0%E6%AD%B7%E5%8F%B2</t>
   </si>
   <si>
-    <t>口述歷史</t>
+    <t>口述历史</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%90%E8%B0%B1</t>
@@ -545,7 +545,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E4%BC%AF%C2%B7%E5%BC%B7%E7%94%9F</t>
   </si>
   <si>
-    <t>羅伯·強生</t>
+    <t>罗伯·强生</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9A%8E%E5%8F%AB%E9%87%8E%E7%8B%BC</t>
@@ -596,7 +596,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%AA%BF</t>
   </si>
   <si>
-    <t>大調</t>
+    <t>大调</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E8%B0%83</t>
@@ -608,13 +608,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%92%86%E5%8B%83%E7%88%B5%E5%A3%AB%E6%A8%82</t>
   </si>
   <si>
-    <t>咆勃爵士樂</t>
+    <t>咆勃爵士乐</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E8%A3%94%E7%BE%8E%E5%9C%8B%E4%BA%BA%E9%9F%B3%E6%A8%82</t>
   </si>
   <si>
-    <t>非裔美國人音樂</t>
+    <t>非裔美国人音乐</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B5%AB%E5%B8%83%E9%87%8C%E5%BA%95%E7%BE%A4%E5%B2%9B</t>
@@ -656,7 +656,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9C%E7%B8%BD%E6%9C%83</t>
   </si>
   <si>
-    <t>夜總會</t>
+    <t>夜总会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%B2%E4%BA%BA%E8%8E%B1%E8%92%99%C2%B7%E6%9D%B0%E5%BC%97%E6%A3%AE</t>
@@ -692,7 +692,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9B%BC%E9%99%80%E9%88%B4</t>
   </si>
   <si>
-    <t>曼陀鈴</t>
+    <t>曼陀铃</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8A%9D%E5%8A%A0%E5%93%A5</t>
@@ -722,9 +722,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%88%B5%E5%A3%AB%E4%B9%90</t>
   </si>
   <si>
-    <t>爵士乐</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%90%A8%E5%85%8B%E6%96%AF%E7%AE%A1</t>
   </si>
   <si>
@@ -764,7 +761,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E7%88%BE%E7%B6%AD%E6%96%AF%C2%B7%E7%9A%AE%E7%A6%AE%E5%A3%AB%E5%88%A9</t>
   </si>
   <si>
-    <t>埃爾維斯·皮禮士利</t>
+    <t>埃尔维斯·皮礼士利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B7%AF%E6%98%93%E6%96%AF%E5%AE%89%E9%82%A3%E5%B7%9E</t>
@@ -824,7 +821,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E6%AD%8C</t>
   </si>
   <si>
-    <t>聖歌</t>
+    <t>圣歌</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%8B%B1%E6%A0%BC%E5%85%B0</t>
@@ -878,7 +875,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -890,7 +887,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
   <si>
     <t>浏览条目正文[c]</t>
@@ -4805,7 +4802,7 @@
         <v>234</v>
       </c>
       <c r="F123" t="s">
-        <v>235</v>
+        <v>44</v>
       </c>
       <c r="G123" t="n">
         <v>15</v>
@@ -4831,10 +4828,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
+        <v>235</v>
+      </c>
+      <c r="F124" t="s">
         <v>236</v>
-      </c>
-      <c r="F124" t="s">
-        <v>237</v>
       </c>
       <c r="G124" t="n">
         <v>4</v>
@@ -4860,10 +4857,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
+        <v>237</v>
+      </c>
+      <c r="F125" t="s">
         <v>238</v>
-      </c>
-      <c r="F125" t="s">
-        <v>239</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -4889,10 +4886,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
+        <v>239</v>
+      </c>
+      <c r="F126" t="s">
         <v>240</v>
-      </c>
-      <c r="F126" t="s">
-        <v>241</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -4918,10 +4915,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
+        <v>241</v>
+      </c>
+      <c r="F127" t="s">
         <v>242</v>
-      </c>
-      <c r="F127" t="s">
-        <v>243</v>
       </c>
       <c r="G127" t="n">
         <v>2</v>
@@ -4947,10 +4944,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
+        <v>243</v>
+      </c>
+      <c r="F128" t="s">
         <v>244</v>
-      </c>
-      <c r="F128" t="s">
-        <v>245</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -4976,10 +4973,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
+        <v>245</v>
+      </c>
+      <c r="F129" t="s">
         <v>246</v>
-      </c>
-      <c r="F129" t="s">
-        <v>247</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -5005,10 +5002,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
+        <v>247</v>
+      </c>
+      <c r="F130" t="s">
         <v>248</v>
-      </c>
-      <c r="F130" t="s">
-        <v>249</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -5034,10 +5031,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
+        <v>249</v>
+      </c>
+      <c r="F131" t="s">
         <v>250</v>
-      </c>
-      <c r="F131" t="s">
-        <v>251</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5063,10 +5060,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
+        <v>251</v>
+      </c>
+      <c r="F132" t="s">
         <v>252</v>
-      </c>
-      <c r="F132" t="s">
-        <v>253</v>
       </c>
       <c r="G132" t="n">
         <v>3</v>
@@ -5092,10 +5089,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
+        <v>253</v>
+      </c>
+      <c r="F133" t="s">
         <v>254</v>
-      </c>
-      <c r="F133" t="s">
-        <v>255</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5121,10 +5118,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
+        <v>255</v>
+      </c>
+      <c r="F134" t="s">
         <v>256</v>
-      </c>
-      <c r="F134" t="s">
-        <v>257</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5150,10 +5147,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
+        <v>257</v>
+      </c>
+      <c r="F135" t="s">
         <v>258</v>
-      </c>
-      <c r="F135" t="s">
-        <v>259</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5179,10 +5176,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
+        <v>259</v>
+      </c>
+      <c r="F136" t="s">
         <v>260</v>
-      </c>
-      <c r="F136" t="s">
-        <v>261</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -5208,10 +5205,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
+        <v>261</v>
+      </c>
+      <c r="F137" t="s">
         <v>262</v>
-      </c>
-      <c r="F137" t="s">
-        <v>263</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -5237,10 +5234,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
+        <v>263</v>
+      </c>
+      <c r="F138" t="s">
         <v>264</v>
-      </c>
-      <c r="F138" t="s">
-        <v>265</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -5266,10 +5263,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
+        <v>265</v>
+      </c>
+      <c r="F139" t="s">
         <v>266</v>
-      </c>
-      <c r="F139" t="s">
-        <v>267</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -5295,10 +5292,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
+        <v>267</v>
+      </c>
+      <c r="F140" t="s">
         <v>268</v>
-      </c>
-      <c r="F140" t="s">
-        <v>269</v>
       </c>
       <c r="G140" t="n">
         <v>5</v>
@@ -5324,10 +5321,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
+        <v>269</v>
+      </c>
+      <c r="F141" t="s">
         <v>270</v>
-      </c>
-      <c r="F141" t="s">
-        <v>271</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -5353,10 +5350,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
+        <v>271</v>
+      </c>
+      <c r="F142" t="s">
         <v>272</v>
-      </c>
-      <c r="F142" t="s">
-        <v>273</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -5382,10 +5379,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
+        <v>273</v>
+      </c>
+      <c r="F143" t="s">
         <v>274</v>
-      </c>
-      <c r="F143" t="s">
-        <v>275</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -5411,10 +5408,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
+        <v>275</v>
+      </c>
+      <c r="F144" t="s">
         <v>276</v>
-      </c>
-      <c r="F144" t="s">
-        <v>277</v>
       </c>
       <c r="G144" t="n">
         <v>2</v>
@@ -5440,10 +5437,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
+        <v>277</v>
+      </c>
+      <c r="F145" t="s">
         <v>278</v>
-      </c>
-      <c r="F145" t="s">
-        <v>279</v>
       </c>
       <c r="G145" t="n">
         <v>2</v>
@@ -5469,10 +5466,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
+        <v>279</v>
+      </c>
+      <c r="F146" t="s">
         <v>280</v>
-      </c>
-      <c r="F146" t="s">
-        <v>281</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -5498,10 +5495,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
+        <v>281</v>
+      </c>
+      <c r="F147" t="s">
         <v>282</v>
-      </c>
-      <c r="F147" t="s">
-        <v>283</v>
       </c>
       <c r="G147" t="n">
         <v>2</v>
@@ -5527,10 +5524,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
+        <v>283</v>
+      </c>
+      <c r="F148" t="s">
         <v>284</v>
-      </c>
-      <c r="F148" t="s">
-        <v>285</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -5556,10 +5553,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
+        <v>285</v>
+      </c>
+      <c r="F149" t="s">
         <v>286</v>
-      </c>
-      <c r="F149" t="s">
-        <v>287</v>
       </c>
       <c r="G149" t="n">
         <v>3</v>
@@ -5585,10 +5582,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
+        <v>287</v>
+      </c>
+      <c r="F150" t="s">
         <v>288</v>
-      </c>
-      <c r="F150" t="s">
-        <v>289</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -5614,10 +5611,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
+        <v>289</v>
+      </c>
+      <c r="F151" t="s">
         <v>290</v>
-      </c>
-      <c r="F151" t="s">
-        <v>291</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -5646,7 +5643,7 @@
         <v>139</v>
       </c>
       <c r="F152" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G152" t="n">
         <v>8</v>
@@ -5675,7 +5672,7 @@
         <v>139</v>
       </c>
       <c r="F153" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>

--- a/xlsx/布鲁斯_intext.xlsx
+++ b/xlsx/布鲁斯_intext.xlsx
@@ -29,7 +29,7 @@
     <t>布鲁斯 (消歧义)</t>
   </si>
   <si>
-    <t>政策_政策_美國_布鲁斯</t>
+    <t>体育运动_体育运动_运动鞋_布鲁斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/B%C2%B7B%C2%B7%E9%87%91</t>
